--- a/Result.xlsx
+++ b/Result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B376C18-AAFE-4DCA-ACD1-C0A06B75292F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EC23F4-533E-46B0-93E4-FC5834C647AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Method</t>
   </si>
@@ -67,6 +67,18 @@
   </si>
   <si>
     <t>9*15*10</t>
+  </si>
+  <si>
+    <t>Dinic2</t>
+  </si>
+  <si>
+    <t>New Dinic2</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
 </sst>
 </file>
@@ -102,22 +114,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -399,40 +408,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="F1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K1" s="4"/>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -465,16 +482,28 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -500,7 +529,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>10</v>
@@ -537,8 +566,14 @@
         <f>J5/H5</f>
         <v>0.82556879739978328</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>35</v>
+      </c>
+      <c r="N5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>20</v>
@@ -556,7 +591,7 @@
         <v>516</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G17" si="0" xml:space="preserve"> E6/C6</f>
+        <f t="shared" ref="G6:G13" si="0" xml:space="preserve"> E6/C6</f>
         <v>0.36951501154734412</v>
       </c>
       <c r="H6">
@@ -575,8 +610,14 @@
         <f t="shared" ref="L6:L13" si="1">J6/H6</f>
         <v>0.43263868506017022</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>34</v>
+      </c>
+      <c r="N6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7">
         <v>30</v>
@@ -613,8 +654,14 @@
         <f t="shared" si="1"/>
         <v>0.24033313503866746</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>31</v>
+      </c>
+      <c r="N7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>40</v>
@@ -651,8 +698,14 @@
         <f t="shared" si="1"/>
         <v>0.1488876212207644</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>50</v>
@@ -689,8 +742,14 @@
         <f t="shared" si="1"/>
         <v>0.22289460413514878</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>100</v>
@@ -727,8 +786,14 @@
         <f t="shared" si="1"/>
         <v>0.15351812366737741</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10">
+        <v>29</v>
+      </c>
+      <c r="N10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>1000</v>
@@ -762,8 +827,14 @@
         <f t="shared" si="1"/>
         <v>0.28524590163934427</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11">
+        <v>26</v>
+      </c>
+      <c r="N11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>10000</v>
@@ -800,10 +871,16 @@
         <f t="shared" si="1"/>
         <v>0.32258064516129031</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13">
@@ -838,150 +915,357 @@
         <f t="shared" si="1"/>
         <v>0.28337874659400547</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>35</v>
+      </c>
+      <c r="N13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10</v>
-      </c>
-      <c r="C14">
-        <v>6917</v>
-      </c>
-      <c r="D14">
-        <v>1883</v>
-      </c>
-      <c r="E14">
-        <v>2641</v>
-      </c>
-      <c r="F14">
-        <v>1851</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0.38181292467832878</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f>SUM(M5:M13)/9</f>
+        <v>31.444444444444443</v>
+      </c>
+      <c r="N14">
+        <f>SUM(N5:N13)/9</f>
+        <v>22.333333333333332</v>
+      </c>
+      <c r="O14">
+        <f>N14/M14</f>
+        <v>0.71024734982332161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>5792</v>
+        <v>6917</v>
       </c>
       <c r="D15">
-        <v>1578</v>
+        <v>1883</v>
       </c>
       <c r="E15">
-        <v>2061</v>
+        <v>2641</v>
       </c>
       <c r="F15">
-        <v>1664</v>
+        <v>1851</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.355835635359116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+        <f xml:space="preserve"> E15/C15</f>
+        <v>0.38181292467832878</v>
+      </c>
+      <c r="M15">
+        <v>227</v>
+      </c>
+      <c r="N15">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="M16">
+        <v>222</v>
+      </c>
+      <c r="N16">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17">
+        <v>30</v>
+      </c>
+      <c r="M17">
+        <v>232</v>
+      </c>
+      <c r="N17">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18">
+        <v>40</v>
+      </c>
+      <c r="M18">
+        <v>205</v>
+      </c>
+      <c r="N18">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19">
+        <v>50</v>
+      </c>
+      <c r="M19">
+        <v>202</v>
+      </c>
+      <c r="N19">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20">
+        <v>100</v>
+      </c>
+      <c r="C20">
+        <v>5792</v>
+      </c>
+      <c r="D20">
+        <v>1578</v>
+      </c>
+      <c r="E20">
+        <v>2061</v>
+      </c>
+      <c r="F20">
+        <v>1664</v>
+      </c>
+      <c r="G20">
+        <f xml:space="preserve"> E20/C20</f>
+        <v>0.355835635359116</v>
+      </c>
+      <c r="M20">
+        <v>198</v>
+      </c>
+      <c r="N20">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21">
+        <v>1000</v>
+      </c>
+      <c r="M21">
+        <v>219</v>
+      </c>
+      <c r="N21">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22">
         <v>10000</v>
       </c>
-      <c r="C16">
+      <c r="C22">
         <v>5378</v>
       </c>
-      <c r="D16">
+      <c r="D22">
         <v>1536</v>
       </c>
-      <c r="E16">
+      <c r="E22">
         <v>1949</v>
       </c>
-      <c r="F16">
+      <c r="F22">
         <v>1625</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="0"/>
+      <c r="G22">
+        <f xml:space="preserve"> E22/C22</f>
         <v>0.36240238006693937</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="M22">
+        <v>199</v>
+      </c>
+      <c r="N22">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23">
+        <v>211</v>
+      </c>
+      <c r="N23">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B17">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f>SUM(M15:M23)/9</f>
+        <v>212.77777777777777</v>
+      </c>
+      <c r="N24">
+        <f>SUM(N15:N23)/9</f>
+        <v>148.33333333333334</v>
+      </c>
+      <c r="O24">
+        <f>N24/M24</f>
+        <v>0.69712793733681466</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="M25">
+        <v>3734</v>
+      </c>
+      <c r="N25">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="M26">
+        <v>3664</v>
+      </c>
+      <c r="N26">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27">
+        <v>30</v>
+      </c>
+      <c r="M27">
+        <v>2971</v>
+      </c>
+      <c r="N27">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28">
+        <v>40</v>
+      </c>
+      <c r="M28">
+        <v>3330</v>
+      </c>
+      <c r="N28">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29">
+        <v>50</v>
+      </c>
+      <c r="M29">
+        <v>3050</v>
+      </c>
+      <c r="N29">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30">
+        <v>100</v>
+      </c>
+      <c r="M30">
+        <v>3156</v>
+      </c>
+      <c r="N30">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31">
+        <v>1000</v>
+      </c>
+      <c r="M31">
+        <v>2693</v>
+      </c>
+      <c r="N31">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32">
         <v>10000</v>
       </c>
-      <c r="C17">
+      <c r="C32">
         <v>165378</v>
       </c>
-      <c r="D17">
+      <c r="D32">
         <v>6970</v>
       </c>
-      <c r="E17">
+      <c r="E32">
         <v>95892</v>
       </c>
-      <c r="F17">
+      <c r="F32">
         <v>8032</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="0"/>
+      <c r="G32">
+        <f xml:space="preserve"> E32/C32</f>
         <v>0.57983528643471316</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <f>SUM(C5:C13)/9</f>
-        <v>381.33333333333331</v>
-      </c>
-      <c r="D18">
-        <f t="shared" ref="D18:L18" si="2">SUM(D5:D13)/9</f>
-        <v>469.22222222222223</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>127.22222222222223</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="2"/>
-        <v>467.88888888888891</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>0.33056368713105766</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="2"/>
-        <v>1504.8888888888889</v>
-      </c>
-      <c r="I18">
-        <f t="shared" si="2"/>
-        <v>3403</v>
-      </c>
-      <c r="J18">
-        <f t="shared" si="2"/>
-        <v>590.22222222222217</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>1391.6666666666667</v>
-      </c>
-      <c r="L18">
-        <f t="shared" si="2"/>
-        <v>0.32389402887961682</v>
+      <c r="M32">
+        <v>2756</v>
+      </c>
+      <c r="N32">
+        <v>2775</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33">
+        <v>3012</v>
+      </c>
+      <c r="N33">
+        <v>2824</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <f xml:space="preserve"> SUM(M25:M33)/9</f>
+        <v>3151.7777777777778</v>
+      </c>
+      <c r="N34">
+        <f>SUM(N25:N33)/9</f>
+        <v>2972.5555555555557</v>
+      </c>
+      <c r="O34">
+        <f>N34/M34</f>
+        <v>0.94313614891066777</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A14:A16"/>
+  <mergeCells count="8">
+    <mergeCell ref="A24:A33"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:A13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A14:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04EC23F4-533E-46B0-93E4-FC5834C647AE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00063625-17C3-4713-909E-5C1D8B4E1D96}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>Method</t>
   </si>
@@ -79,6 +79,18 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>New BK</t>
+  </si>
+  <si>
+    <t>BK in Matlab</t>
+  </si>
+  <si>
+    <t>30*50*5</t>
   </si>
 </sst>
 </file>
@@ -408,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="T45" sqref="T45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,9 +431,12 @@
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -448,8 +463,17 @@
       <c r="N1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -491,8 +515,11 @@
       <c r="O2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -503,7 +530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -529,7 +556,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>10</v>
@@ -572,8 +599,17 @@
       <c r="N5">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>7.13</v>
+      </c>
+      <c r="Q5">
+        <v>3.05</v>
+      </c>
+      <c r="S5">
+        <v>3.6600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>20</v>
@@ -616,8 +652,17 @@
       <c r="N6">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>7.47</v>
+      </c>
+      <c r="Q6">
+        <v>3.16</v>
+      </c>
+      <c r="S6">
+        <v>3.0799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7">
         <v>30</v>
@@ -660,8 +705,17 @@
       <c r="N7">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>6.83</v>
+      </c>
+      <c r="Q7">
+        <v>2.76</v>
+      </c>
+      <c r="S7">
+        <v>3.0400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>40</v>
@@ -704,8 +758,17 @@
       <c r="N8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8">
+        <v>6.92</v>
+      </c>
+      <c r="Q8">
+        <v>2.73</v>
+      </c>
+      <c r="S8">
+        <v>2.99E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>50</v>
@@ -748,8 +811,17 @@
       <c r="N9">
         <v>33</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>4.7</v>
+      </c>
+      <c r="S9">
+        <v>3.31E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>100</v>
@@ -792,8 +864,17 @@
       <c r="N10">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <v>7.42</v>
+      </c>
+      <c r="Q10">
+        <v>2.96</v>
+      </c>
+      <c r="S10">
+        <v>2.9299999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>1000</v>
@@ -833,8 +914,17 @@
       <c r="N11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <v>7.02</v>
+      </c>
+      <c r="Q11">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="S11">
+        <v>3.2200000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>10000</v>
@@ -877,8 +967,17 @@
       <c r="N12">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <v>5.85</v>
+      </c>
+      <c r="Q12">
+        <v>2.86</v>
+      </c>
+      <c r="S12">
+        <v>3.0400000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -921,8 +1020,17 @@
       <c r="N13">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <v>5.92</v>
+      </c>
+      <c r="Q13">
+        <v>3.15</v>
+      </c>
+      <c r="S13">
+        <v>3.1199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -934,15 +1042,35 @@
         <v>31.444444444444443</v>
       </c>
       <c r="N14">
-        <f>SUM(N5:N13)/9</f>
+        <f t="shared" ref="N14:Q14" si="2">SUM(N5:N13)/9</f>
         <v>22.333333333333332</v>
       </c>
       <c r="O14">
-        <f>N14/M14</f>
-        <v>0.71024734982332161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="2"/>
+        <v>6.9511111111111124</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ref="Q14" si="3">SUM(Q5:Q13)/9</f>
+        <v>3.0766666666666662</v>
+      </c>
+      <c r="R14">
+        <f>Q14/P14</f>
+        <v>0.44261508951406636</v>
+      </c>
+      <c r="S14">
+        <f t="shared" ref="S14" si="4">SUM(S5:S13)/9</f>
+        <v>3.1544444444444445E-3</v>
+      </c>
+      <c r="T14">
+        <f>P14/S14</f>
+        <v>2203.5928143712576</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>10</v>
@@ -969,8 +1097,17 @@
       <c r="N15">
         <v>142</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <v>39.1</v>
+      </c>
+      <c r="Q15">
+        <v>18.8</v>
+      </c>
+      <c r="S15">
+        <v>1.09E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>20</v>
@@ -981,8 +1118,17 @@
       <c r="N16">
         <v>148</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <v>36.4</v>
+      </c>
+      <c r="Q16">
+        <v>15.6</v>
+      </c>
+      <c r="S16">
+        <v>1.18E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>30</v>
@@ -993,8 +1139,17 @@
       <c r="N17">
         <v>164</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="Q17">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="S17">
+        <v>9.2800000000000001E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>40</v>
@@ -1005,8 +1160,17 @@
       <c r="N18">
         <v>148</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18">
+        <v>36</v>
+      </c>
+      <c r="Q18">
+        <v>17.7</v>
+      </c>
+      <c r="S18">
+        <v>1.9400000000000001E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>50</v>
@@ -1017,8 +1181,17 @@
       <c r="N19">
         <v>136</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19">
+        <v>32.9</v>
+      </c>
+      <c r="Q19">
+        <v>14.1</v>
+      </c>
+      <c r="S19">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>100</v>
@@ -1045,8 +1218,17 @@
       <c r="N20">
         <v>145</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Q20">
+        <v>15.2</v>
+      </c>
+      <c r="S20">
+        <v>6.2100000000000002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>1000</v>
@@ -1057,8 +1239,17 @@
       <c r="N21">
         <v>161</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21">
+        <v>35</v>
+      </c>
+      <c r="Q21">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="S21">
+        <v>7.6E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>10000</v>
@@ -1085,8 +1276,17 @@
       <c r="N22">
         <v>144</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22">
+        <v>33</v>
+      </c>
+      <c r="Q22">
+        <v>12.7</v>
+      </c>
+      <c r="S22">
+        <v>6.0800000000000003E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1097,8 +1297,17 @@
       <c r="N23">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="Q23">
+        <v>14.6</v>
+      </c>
+      <c r="S23">
+        <v>6.6E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -1110,15 +1319,35 @@
         <v>212.77777777777777</v>
       </c>
       <c r="N24">
-        <f>SUM(N15:N23)/9</f>
+        <f t="shared" ref="N24:Q24" si="5">SUM(N15:N23)/9</f>
         <v>148.33333333333334</v>
       </c>
       <c r="O24">
-        <f>N24/M24</f>
-        <v>0.69712793733681466</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="5"/>
+        <v>35.077777777777776</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" ref="Q24" si="6">SUM(Q15:Q23)/9</f>
+        <v>15.68888888888889</v>
+      </c>
+      <c r="R24">
+        <f>Q24/P24</f>
+        <v>0.44726005701615462</v>
+      </c>
+      <c r="S24">
+        <f t="shared" ref="S24" si="7">SUM(S15:S23)/9</f>
+        <v>9.385555555555555E-3</v>
+      </c>
+      <c r="T24">
+        <f>P24/S24</f>
+        <v>3737.4215697880904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>10</v>
@@ -1129,8 +1358,17 @@
       <c r="N25">
         <v>3252</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25">
+        <v>527</v>
+      </c>
+      <c r="Q25">
+        <v>413</v>
+      </c>
+      <c r="S25">
+        <v>7.3400000000000007E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>20</v>
@@ -1141,8 +1379,17 @@
       <c r="N26">
         <v>3451</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26">
+        <v>573</v>
+      </c>
+      <c r="Q26">
+        <v>489</v>
+      </c>
+      <c r="S26">
+        <v>0.104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>30</v>
@@ -1153,8 +1400,17 @@
       <c r="N27">
         <v>2656</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27">
+        <v>405</v>
+      </c>
+      <c r="Q27">
+        <v>296</v>
+      </c>
+      <c r="S27">
+        <v>7.17E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>40</v>
@@ -1165,8 +1421,17 @@
       <c r="N28">
         <v>2975</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28">
+        <v>506</v>
+      </c>
+      <c r="Q28">
+        <v>374</v>
+      </c>
+      <c r="S28">
+        <v>8.0100000000000005E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>50</v>
@@ -1177,8 +1442,17 @@
       <c r="N29">
         <v>2935</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29">
+        <v>409</v>
+      </c>
+      <c r="Q29">
+        <v>310</v>
+      </c>
+      <c r="S29">
+        <v>8.1600000000000006E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>100</v>
@@ -1189,8 +1463,17 @@
       <c r="N30">
         <v>3096</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30">
+        <v>470</v>
+      </c>
+      <c r="Q30">
+        <v>383</v>
+      </c>
+      <c r="S30">
+        <v>8.0299999999999996E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>1000</v>
@@ -1201,8 +1484,17 @@
       <c r="N31">
         <v>2789</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31">
+        <v>356</v>
+      </c>
+      <c r="Q31">
+        <v>304</v>
+      </c>
+      <c r="S31">
+        <v>6.3500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>10000</v>
@@ -1229,8 +1521,17 @@
       <c r="N32">
         <v>2775</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32">
+        <v>351</v>
+      </c>
+      <c r="Q32">
+        <v>287</v>
+      </c>
+      <c r="S32">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -1241,23 +1542,216 @@
       <c r="N33">
         <v>2824</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33">
+        <v>373</v>
+      </c>
+      <c r="Q33">
+        <v>316</v>
+      </c>
+      <c r="S33">
+        <v>6.2700000000000006E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
       <c r="M34">
         <f xml:space="preserve"> SUM(M25:M33)/9</f>
         <v>3151.7777777777778</v>
       </c>
       <c r="N34">
-        <f>SUM(N25:N33)/9</f>
+        <f t="shared" ref="N34:Q34" si="8" xml:space="preserve"> SUM(N25:N33)/9</f>
         <v>2972.5555555555557</v>
       </c>
       <c r="O34">
-        <f>N34/M34</f>
-        <v>0.94313614891066777</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>441.11111111111109</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" ref="Q34" si="9" xml:space="preserve"> SUM(Q25:Q33)/9</f>
+        <v>352.44444444444446</v>
+      </c>
+      <c r="R34">
+        <f>Q34/P34</f>
+        <v>0.79899244332493713</v>
+      </c>
+      <c r="S34">
+        <f t="shared" ref="S34" si="10" xml:space="preserve"> SUM(S25:S33)/9</f>
+        <v>7.5433333333333324E-2</v>
+      </c>
+      <c r="T34">
+        <f>P34/S34</f>
+        <v>5847.6948004124324</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="P35">
+        <v>591</v>
+      </c>
+      <c r="Q35">
+        <v>317</v>
+      </c>
+      <c r="S35">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36">
+        <v>20</v>
+      </c>
+      <c r="P36">
+        <v>518</v>
+      </c>
+      <c r="Q36">
+        <v>257</v>
+      </c>
+      <c r="S36">
+        <v>8.8999999999999996E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37">
+        <v>30</v>
+      </c>
+      <c r="P37">
+        <v>544</v>
+      </c>
+      <c r="Q37">
+        <v>256</v>
+      </c>
+      <c r="S37">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38">
+        <v>40</v>
+      </c>
+      <c r="P38">
+        <v>492</v>
+      </c>
+      <c r="Q38">
+        <v>240</v>
+      </c>
+      <c r="S38">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39">
+        <v>50</v>
+      </c>
+      <c r="P39">
+        <v>540</v>
+      </c>
+      <c r="Q39">
+        <v>235</v>
+      </c>
+      <c r="S39">
+        <v>9.6000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40">
+        <v>100</v>
+      </c>
+      <c r="P40">
+        <v>526</v>
+      </c>
+      <c r="Q40">
+        <v>248</v>
+      </c>
+      <c r="S40">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41">
+        <v>1000</v>
+      </c>
+      <c r="P41">
+        <v>616</v>
+      </c>
+      <c r="Q41">
+        <v>264</v>
+      </c>
+      <c r="S41">
+        <v>0.13300000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42">
+        <v>10000</v>
+      </c>
+      <c r="P42">
+        <v>823</v>
+      </c>
+      <c r="Q42">
+        <v>253</v>
+      </c>
+      <c r="S42">
+        <v>0.13800000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43">
+        <v>669</v>
+      </c>
+      <c r="Q43">
+        <v>240</v>
+      </c>
+      <c r="S43">
+        <v>0.17199999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P44">
+        <f>SUM(P35:P43)/9</f>
+        <v>591</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" ref="Q44:S44" si="11">SUM(Q35:Q43)/9</f>
+        <v>256.66666666666669</v>
+      </c>
+      <c r="R44">
+        <f>Q44/P44</f>
+        <v>0.43429216018048511</v>
+      </c>
+      <c r="S44">
+        <f t="shared" si="11"/>
+        <v>0.11366666666666665</v>
+      </c>
+      <c r="T44">
+        <f>Q44/S44</f>
+        <v>2258.0645161290327</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A34:A43"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00063625-17C3-4713-909E-5C1D8B4E1D96}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E6458D2-2F3E-4B13-947F-C3EDE2A75DE1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Method</t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>30*50*5</t>
+  </si>
+  <si>
+    <t>30*50*10</t>
+  </si>
+  <si>
+    <t>30*50*20</t>
+  </si>
+  <si>
+    <t>IBFS</t>
+  </si>
+  <si>
+    <t>New IBFS</t>
   </si>
 </sst>
 </file>
@@ -420,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T44"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T45" sqref="T45"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="J62" sqref="J62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,10 +445,11 @@
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="16" max="16" width="12.42578125" customWidth="1"/>
     <col min="17" max="17" width="12.140625" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -469,11 +482,17 @@
       <c r="Q1" t="s">
         <v>19</v>
       </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
       <c r="S1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="T1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" t="s">
@@ -519,7 +538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -530,7 +549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -556,7 +575,7 @@
         <v>6555</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5">
         <v>10</v>
@@ -605,11 +624,17 @@
       <c r="Q5">
         <v>3.05</v>
       </c>
+      <c r="R5">
+        <v>3.6600000000000001E-3</v>
+      </c>
       <c r="S5">
-        <v>3.6600000000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13.3</v>
+      </c>
+      <c r="T5">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6">
         <v>20</v>
@@ -658,11 +683,17 @@
       <c r="Q6">
         <v>3.16</v>
       </c>
+      <c r="R6">
+        <v>3.0799999999999998E-3</v>
+      </c>
       <c r="S6">
-        <v>3.0799999999999998E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13.8</v>
+      </c>
+      <c r="T6">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7">
         <v>30</v>
@@ -711,11 +742,17 @@
       <c r="Q7">
         <v>2.76</v>
       </c>
+      <c r="R7">
+        <v>3.0400000000000002E-3</v>
+      </c>
       <c r="S7">
-        <v>3.0400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13.1</v>
+      </c>
+      <c r="T7">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8">
         <v>40</v>
@@ -764,11 +801,17 @@
       <c r="Q8">
         <v>2.73</v>
       </c>
+      <c r="R8">
+        <v>2.99E-3</v>
+      </c>
       <c r="S8">
-        <v>2.99E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13.5</v>
+      </c>
+      <c r="T8">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9">
         <v>50</v>
@@ -817,11 +860,17 @@
       <c r="Q9">
         <v>4.7</v>
       </c>
+      <c r="R9">
+        <v>3.31E-3</v>
+      </c>
       <c r="S9">
-        <v>3.31E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>14.4</v>
+      </c>
+      <c r="T9">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10">
         <v>100</v>
@@ -870,11 +919,17 @@
       <c r="Q10">
         <v>2.96</v>
       </c>
+      <c r="R10">
+        <v>2.9299999999999999E-3</v>
+      </c>
       <c r="S10">
-        <v>2.9299999999999999E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>12.2</v>
+      </c>
+      <c r="T10">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11">
         <v>1000</v>
@@ -920,11 +975,17 @@
       <c r="Q11">
         <v>2.3199999999999998</v>
       </c>
+      <c r="R11">
+        <v>3.2200000000000002E-3</v>
+      </c>
       <c r="S11">
-        <v>3.2200000000000002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+        <v>11.1</v>
+      </c>
+      <c r="T11">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12">
         <v>10000</v>
@@ -973,11 +1034,17 @@
       <c r="Q12">
         <v>2.86</v>
       </c>
+      <c r="R12">
+        <v>3.0400000000000002E-3</v>
+      </c>
       <c r="S12">
-        <v>3.0400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+        <v>12.4</v>
+      </c>
+      <c r="T12">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
@@ -1026,51 +1093,101 @@
       <c r="Q13">
         <v>3.15</v>
       </c>
+      <c r="R13">
+        <v>3.1199999999999999E-3</v>
+      </c>
       <c r="S13">
-        <v>3.1199999999999999E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+        <v>13.2</v>
+      </c>
+      <c r="T13">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" ref="C14:L14" si="2">SUM(C5:C13)/9</f>
+        <v>381.33333333333331</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>469.22222222222223</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>127.22222222222223</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>467.88888888888891</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.33056368713105766</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1504.8888888888889</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="2"/>
+        <v>3403</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="2"/>
+        <v>590.22222222222217</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="2"/>
+        <v>1391.6666666666667</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0.32389402887961682</v>
       </c>
       <c r="M14">
         <f>SUM(M5:M13)/9</f>
         <v>31.444444444444443</v>
       </c>
       <c r="N14">
-        <f t="shared" ref="N14:Q14" si="2">SUM(N5:N13)/9</f>
+        <f t="shared" ref="N14:P14" si="3">SUM(N5:N13)/9</f>
         <v>22.333333333333332</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9511111111111124</v>
       </c>
       <c r="Q14">
-        <f t="shared" ref="Q14" si="3">SUM(Q5:Q13)/9</f>
+        <f t="shared" ref="Q14" si="4">SUM(Q5:Q13)/9</f>
         <v>3.0766666666666662</v>
       </c>
       <c r="R14">
-        <f>Q14/P14</f>
-        <v>0.44261508951406636</v>
+        <f t="shared" ref="R14" si="5">SUM(R5:R13)/9</f>
+        <v>3.1544444444444445E-3</v>
       </c>
       <c r="S14">
-        <f t="shared" ref="S14" si="4">SUM(S5:S13)/9</f>
-        <v>3.1544444444444445E-3</v>
+        <f>SUM(S5:S13)/9</f>
+        <v>13.000000000000002</v>
       </c>
       <c r="T14">
-        <f>P14/S14</f>
-        <v>2203.5928143712576</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+        <f>SUM(T5:T13)/9</f>
+        <v>6.2888888888888888</v>
+      </c>
+      <c r="U14">
+        <f>T14/S14</f>
+        <v>0.48376068376068371</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15">
         <v>10</v>
@@ -1103,11 +1220,17 @@
       <c r="Q15">
         <v>18.8</v>
       </c>
+      <c r="R15">
+        <v>1.09E-2</v>
+      </c>
       <c r="S15">
-        <v>1.09E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="T15">
+        <v>44.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16">
         <v>20</v>
@@ -1124,11 +1247,17 @@
       <c r="Q16">
         <v>15.6</v>
       </c>
+      <c r="R16">
+        <v>1.18E-2</v>
+      </c>
       <c r="S16">
-        <v>1.18E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="T16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17">
         <v>30</v>
@@ -1145,11 +1274,17 @@
       <c r="Q17">
         <v>16.399999999999999</v>
       </c>
+      <c r="R17">
+        <v>9.2800000000000001E-3</v>
+      </c>
       <c r="S17">
-        <v>9.2800000000000001E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>67.3</v>
+      </c>
+      <c r="T17">
+        <v>44.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18">
         <v>40</v>
@@ -1166,11 +1301,17 @@
       <c r="Q18">
         <v>17.7</v>
       </c>
+      <c r="R18">
+        <v>1.9400000000000001E-2</v>
+      </c>
       <c r="S18">
-        <v>1.9400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>70.2</v>
+      </c>
+      <c r="T18">
+        <v>43.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19">
         <v>50</v>
@@ -1187,11 +1328,17 @@
       <c r="Q19">
         <v>14.1</v>
       </c>
+      <c r="R19">
+        <v>6.6E-3</v>
+      </c>
       <c r="S19">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="T19">
+        <v>40.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20">
         <v>100</v>
@@ -1224,11 +1371,17 @@
       <c r="Q20">
         <v>15.2</v>
       </c>
+      <c r="R20">
+        <v>6.2100000000000002E-3</v>
+      </c>
       <c r="S20">
-        <v>6.2100000000000002E-3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>61.7</v>
+      </c>
+      <c r="T20">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21">
         <v>1000</v>
@@ -1245,11 +1398,17 @@
       <c r="Q21">
         <v>16.100000000000001</v>
       </c>
+      <c r="R21">
+        <v>7.6E-3</v>
+      </c>
       <c r="S21">
-        <v>7.6E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>64.599999999999994</v>
+      </c>
+      <c r="T21">
+        <v>46.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22">
         <v>10000</v>
@@ -1282,11 +1441,17 @@
       <c r="Q22">
         <v>12.7</v>
       </c>
+      <c r="R22">
+        <v>6.0800000000000003E-3</v>
+      </c>
       <c r="S22">
-        <v>6.0800000000000003E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>59.8</v>
+      </c>
+      <c r="T22">
+        <v>38.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="2" t="s">
         <v>16</v>
@@ -1303,11 +1468,17 @@
       <c r="Q23">
         <v>14.6</v>
       </c>
+      <c r="R23">
+        <v>6.6E-3</v>
+      </c>
       <c r="S23">
-        <v>6.6E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>63.3</v>
+      </c>
+      <c r="T23">
+        <v>42.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -1319,35 +1490,39 @@
         <v>212.77777777777777</v>
       </c>
       <c r="N24">
-        <f t="shared" ref="N24:Q24" si="5">SUM(N15:N23)/9</f>
+        <f t="shared" ref="N24:P24" si="6">SUM(N15:N23)/9</f>
         <v>148.33333333333334</v>
       </c>
       <c r="O24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>35.077777777777776</v>
       </c>
       <c r="Q24">
-        <f t="shared" ref="Q24" si="6">SUM(Q15:Q23)/9</f>
+        <f t="shared" ref="Q24" si="7">SUM(Q15:Q23)/9</f>
         <v>15.68888888888889</v>
       </c>
       <c r="R24">
-        <f>Q24/P24</f>
-        <v>0.44726005701615462</v>
+        <f t="shared" ref="R24:T24" si="8">SUM(R15:R23)/9</f>
+        <v>9.385555555555555E-3</v>
       </c>
       <c r="S24">
-        <f t="shared" ref="S24" si="7">SUM(S15:S23)/9</f>
-        <v>9.385555555555555E-3</v>
+        <f t="shared" si="8"/>
+        <v>65.333333333333314</v>
       </c>
       <c r="T24">
-        <f>P24/S24</f>
-        <v>3737.4215697880904</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="8"/>
+        <v>42.222222222222229</v>
+      </c>
+      <c r="U24">
+        <f t="shared" ref="U24:U44" si="9">T24/S24</f>
+        <v>0.64625850340136082</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25">
         <v>10</v>
@@ -1364,11 +1539,17 @@
       <c r="Q25">
         <v>413</v>
       </c>
+      <c r="R25">
+        <v>7.3400000000000007E-2</v>
+      </c>
       <c r="S25">
-        <v>7.3400000000000007E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>995</v>
+      </c>
+      <c r="T25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26">
         <v>20</v>
@@ -1385,11 +1566,17 @@
       <c r="Q26">
         <v>489</v>
       </c>
+      <c r="R26">
+        <v>0.104</v>
+      </c>
       <c r="S26">
-        <v>0.104</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1008</v>
+      </c>
+      <c r="T26">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27">
         <v>30</v>
@@ -1406,11 +1593,17 @@
       <c r="Q27">
         <v>296</v>
       </c>
+      <c r="R27">
+        <v>7.17E-2</v>
+      </c>
       <c r="S27">
-        <v>7.17E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+        <v>754</v>
+      </c>
+      <c r="T27">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28">
         <v>40</v>
@@ -1427,11 +1620,17 @@
       <c r="Q28">
         <v>374</v>
       </c>
+      <c r="R28">
+        <v>8.0100000000000005E-2</v>
+      </c>
       <c r="S28">
-        <v>8.0100000000000005E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>886</v>
+      </c>
+      <c r="T28">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29">
         <v>50</v>
@@ -1448,11 +1647,17 @@
       <c r="Q29">
         <v>310</v>
       </c>
+      <c r="R29">
+        <v>8.1600000000000006E-2</v>
+      </c>
       <c r="S29">
-        <v>8.1600000000000006E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+      <c r="T29">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30">
         <v>100</v>
@@ -1469,11 +1674,17 @@
       <c r="Q30">
         <v>383</v>
       </c>
+      <c r="R30">
+        <v>8.0299999999999996E-2</v>
+      </c>
       <c r="S30">
-        <v>8.0299999999999996E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+        <v>902</v>
+      </c>
+      <c r="T30">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31">
         <v>1000</v>
@@ -1490,11 +1701,17 @@
       <c r="Q31">
         <v>304</v>
       </c>
+      <c r="R31">
+        <v>6.3500000000000001E-2</v>
+      </c>
       <c r="S31">
-        <v>6.3500000000000001E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+        <v>781</v>
+      </c>
+      <c r="T31">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32">
         <v>10000</v>
@@ -1527,11 +1744,17 @@
       <c r="Q32">
         <v>287</v>
       </c>
+      <c r="R32">
+        <v>6.1600000000000002E-2</v>
+      </c>
       <c r="S32">
-        <v>6.1600000000000002E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+        <v>780</v>
+      </c>
+      <c r="T32">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="2" t="s">
         <v>16</v>
@@ -1548,11 +1771,17 @@
       <c r="Q33">
         <v>316</v>
       </c>
+      <c r="R33">
+        <v>6.2700000000000006E-2</v>
+      </c>
       <c r="S33">
-        <v>6.2700000000000006E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+        <v>811</v>
+      </c>
+      <c r="T33">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>21</v>
       </c>
@@ -1564,35 +1793,39 @@
         <v>3151.7777777777778</v>
       </c>
       <c r="N34">
-        <f t="shared" ref="N34:Q34" si="8" xml:space="preserve"> SUM(N25:N33)/9</f>
+        <f t="shared" ref="N34:P34" si="10" xml:space="preserve"> SUM(N25:N33)/9</f>
         <v>2972.5555555555557</v>
       </c>
       <c r="O34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>441.11111111111109</v>
       </c>
       <c r="Q34">
-        <f t="shared" ref="Q34" si="9" xml:space="preserve"> SUM(Q25:Q33)/9</f>
+        <f t="shared" ref="Q34" si="11" xml:space="preserve"> SUM(Q25:Q33)/9</f>
         <v>352.44444444444446</v>
       </c>
       <c r="R34">
-        <f>Q34/P34</f>
-        <v>0.79899244332493713</v>
+        <f t="shared" ref="R34:T34" si="12" xml:space="preserve"> SUM(R25:R33)/9</f>
+        <v>7.5433333333333324E-2</v>
       </c>
       <c r="S34">
-        <f t="shared" ref="S34" si="10" xml:space="preserve"> SUM(S25:S33)/9</f>
-        <v>7.5433333333333324E-2</v>
+        <f t="shared" si="12"/>
+        <v>861.55555555555554</v>
       </c>
       <c r="T34">
-        <f>P34/S34</f>
-        <v>5847.6948004124324</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+        <f t="shared" si="12"/>
+        <v>753.11111111111109</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="9"/>
+        <v>0.8741294815579056</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35">
         <v>10</v>
@@ -1603,11 +1836,17 @@
       <c r="Q35">
         <v>317</v>
       </c>
+      <c r="R35">
+        <v>0.11</v>
+      </c>
       <c r="S35">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1391</v>
+      </c>
+      <c r="T35">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36">
         <v>20</v>
@@ -1618,11 +1857,17 @@
       <c r="Q36">
         <v>257</v>
       </c>
+      <c r="R36">
+        <v>8.8999999999999996E-2</v>
+      </c>
       <c r="S36">
-        <v>8.8999999999999996E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1233</v>
+      </c>
+      <c r="T36">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37">
         <v>30</v>
@@ -1633,11 +1878,17 @@
       <c r="Q37">
         <v>256</v>
       </c>
+      <c r="R37">
+        <v>0.10100000000000001</v>
+      </c>
       <c r="S37">
-        <v>0.10100000000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1206</v>
+      </c>
+      <c r="T37">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38">
         <v>40</v>
@@ -1648,11 +1899,17 @@
       <c r="Q38">
         <v>240</v>
       </c>
+      <c r="R38">
+        <v>0.09</v>
+      </c>
       <c r="S38">
-        <v>0.09</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+      <c r="T38">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39">
         <v>50</v>
@@ -1663,11 +1920,17 @@
       <c r="Q39">
         <v>235</v>
       </c>
+      <c r="R39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="S39">
-        <v>9.6000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1271</v>
+      </c>
+      <c r="T39">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40">
         <v>100</v>
@@ -1678,11 +1941,17 @@
       <c r="Q40">
         <v>248</v>
       </c>
+      <c r="R40">
+        <v>9.4E-2</v>
+      </c>
       <c r="S40">
-        <v>9.4E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1268</v>
+      </c>
+      <c r="T40">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41">
         <v>1000</v>
@@ -1693,11 +1962,17 @@
       <c r="Q41">
         <v>264</v>
       </c>
+      <c r="R41">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="S41">
-        <v>0.13300000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1180</v>
+      </c>
+      <c r="T41">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42">
         <v>10000</v>
@@ -1708,11 +1983,17 @@
       <c r="Q42">
         <v>253</v>
       </c>
+      <c r="R42">
+        <v>0.13800000000000001</v>
+      </c>
       <c r="S42">
-        <v>0.13800000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1138</v>
+      </c>
+      <c r="T42">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="2" t="s">
         <v>16</v>
@@ -1723,34 +2004,206 @@
       <c r="Q43">
         <v>240</v>
       </c>
+      <c r="R43">
+        <v>0.17199999999999999</v>
+      </c>
       <c r="S43">
-        <v>0.17199999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1099</v>
+      </c>
+      <c r="T43">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
       <c r="P44">
         <f>SUM(P35:P43)/9</f>
         <v>591</v>
       </c>
       <c r="Q44">
-        <f t="shared" ref="Q44:S44" si="11">SUM(Q35:Q43)/9</f>
+        <f t="shared" ref="Q44" si="13">SUM(Q35:Q43)/9</f>
         <v>256.66666666666669</v>
       </c>
       <c r="R44">
-        <f>Q44/P44</f>
-        <v>0.43429216018048511</v>
+        <f t="shared" ref="R44:T44" si="14">SUM(R35:R43)/9</f>
+        <v>0.11366666666666665</v>
       </c>
       <c r="S44">
-        <f t="shared" si="11"/>
-        <v>0.11366666666666665</v>
+        <f>SUM(S35:S43)/9</f>
+        <v>1218.4444444444443</v>
       </c>
       <c r="T44">
-        <f>Q44/S44</f>
-        <v>2258.0645161290327</v>
+        <f t="shared" si="14"/>
+        <v>742.44444444444446</v>
+      </c>
+      <c r="U44">
+        <f t="shared" si="9"/>
+        <v>0.60933795367499555</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="P45">
+        <v>28058</v>
+      </c>
+      <c r="Q45">
+        <v>20416</v>
+      </c>
+      <c r="R45">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="P46">
+        <v>26321</v>
+      </c>
+      <c r="Q46">
+        <v>17526</v>
+      </c>
+      <c r="R46">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47">
+        <v>30</v>
+      </c>
+      <c r="P47">
+        <v>29415</v>
+      </c>
+      <c r="Q47">
+        <v>19465</v>
+      </c>
+      <c r="R47">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48">
+        <v>40</v>
+      </c>
+      <c r="P48">
+        <v>31606</v>
+      </c>
+      <c r="Q48">
+        <v>19769</v>
+      </c>
+      <c r="R48">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49">
+        <v>50</v>
+      </c>
+      <c r="P49">
+        <v>33701</v>
+      </c>
+      <c r="Q49">
+        <v>20588</v>
+      </c>
+      <c r="R49">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50">
+        <v>100</v>
+      </c>
+      <c r="P50">
+        <v>37332</v>
+      </c>
+      <c r="Q50">
+        <v>22243</v>
+      </c>
+      <c r="R50">
+        <v>2.61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51">
+        <v>1000</v>
+      </c>
+      <c r="P51">
+        <v>45748</v>
+      </c>
+      <c r="Q51">
+        <v>25954</v>
+      </c>
+      <c r="R51">
+        <v>3.21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52">
+        <v>10000</v>
+      </c>
+      <c r="P52">
+        <v>73834</v>
+      </c>
+      <c r="Q52">
+        <v>27424</v>
+      </c>
+      <c r="R52">
+        <v>3.49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>58418</v>
+      </c>
+      <c r="Q53">
+        <v>29811</v>
+      </c>
+      <c r="R53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54">
+        <v>30</v>
+      </c>
+      <c r="P54">
+        <f>SUM(P45:P53)/9</f>
+        <v>40492.555555555555</v>
+      </c>
+      <c r="Q54">
+        <f>SUM(Q45:Q53)/9</f>
+        <v>22577.333333333332</v>
+      </c>
+      <c r="R54">
+        <f>SUM(R45:R53)/9</f>
+        <v>2.5555555555555554</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A44:A53"/>
     <mergeCell ref="A34:A43"/>
     <mergeCell ref="A24:A33"/>
     <mergeCell ref="H1:I1"/>
